--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -456,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>88.69181022653206</v>
+        <v>88.69181022653207</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>101.1691093742655</v>
+        <v>101.1691093742656</v>
       </c>
     </row>
     <row r="12">
@@ -624,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>127.3497247223521</v>
+        <v>127.349724722352</v>
       </c>
     </row>
     <row r="25">
@@ -704,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>154.6097833617668</v>
+        <v>154.6097833617669</v>
       </c>
     </row>
     <row r="35">
@@ -760,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>178.790570070023</v>
+        <v>178.7905700700229</v>
       </c>
     </row>
     <row r="42">
@@ -784,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>190.7245552278441</v>
+        <v>190.7245552278442</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>199.2664003972086</v>
+        <v>199.2664003972087</v>
       </c>
     </row>
     <row r="47">
@@ -832,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>217.8727424752864</v>
+        <v>217.8727424752865</v>
       </c>
     </row>
     <row r="51">
@@ -992,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>348.0266710375762</v>
+        <v>348.0266710375763</v>
       </c>
     </row>
     <row r="71">
@@ -1040,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>401.3179914064915</v>
+        <v>401.3179914064914</v>
       </c>
     </row>
     <row r="77">
@@ -1160,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>566.2825206671173</v>
+        <v>566.2825206671175</v>
       </c>
     </row>
     <row r="92">
@@ -1200,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>630.9311354718586</v>
+        <v>630.9311354718585</v>
       </c>
     </row>
     <row r="97">
@@ -1224,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>671.7781432189755</v>
+        <v>671.7781432189756</v>
       </c>
     </row>
     <row r="100">
@@ -1264,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>742.8781990246645</v>
+        <v>742.8781990246646</v>
       </c>
     </row>
     <row r="105">
@@ -1304,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>817.1253036250268</v>
+        <v>817.1253036250267</v>
       </c>
     </row>
     <row r="110">
@@ -1336,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>878.2251796674811</v>
+        <v>878.2251796674813</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>893.6753290499315</v>
+        <v>893.6753290499316</v>
       </c>
     </row>
     <row r="115">
@@ -1392,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>987.247885384705</v>
+        <v>987.2478853847049</v>
       </c>
     </row>
     <row r="121">
@@ -1616,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1403.078991623519</v>
+        <v>1403.07899162352</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1416.367418420923</v>
+        <v>1416.367418420922</v>
       </c>
     </row>
     <row r="150">
@@ -1720,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1566.104932274998</v>
+        <v>1566.104932274999</v>
       </c>
     </row>
     <row r="162">
@@ -1784,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1658.478068085869</v>
+        <v>1658.47806808587</v>
       </c>
     </row>
     <row r="170">
@@ -1864,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1772.78543640889</v>
+        <v>1772.785436408891</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2624.384001818051</v>
+        <v>2624.384001818052</v>
       </c>
     </row>
     <row r="226">
@@ -2384,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3315.974574014059</v>
+        <v>3315.974574014058</v>
       </c>
     </row>
     <row r="245">
@@ -2424,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3544.864755453648</v>
+        <v>3544.864755453647</v>
       </c>
     </row>
     <row r="250">
@@ -2488,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3957.567686839234</v>
+        <v>3957.567686839235</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>4013.444535354053</v>
+        <v>4013.444535354052</v>
       </c>
     </row>
     <row r="259">
@@ -2592,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4766.673534567096</v>
+        <v>4766.673534567097</v>
       </c>
     </row>
     <row r="271">
@@ -2616,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4981.016388274293</v>
+        <v>4981.016388274292</v>
       </c>
     </row>
     <row r="274">
@@ -2696,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5782.365789630991</v>
+        <v>5782.365789630992</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5960.177586037684</v>
+        <v>5960.177586037683</v>
       </c>
     </row>
     <row r="286">
@@ -2736,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6238.881214244475</v>
+        <v>6238.881214244476</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6335.094649897821</v>
+        <v>6335.094649897819</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6433.013582019658</v>
+        <v>6433.013582019659</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6532.668120467615</v>
+        <v>6532.668120467616</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6737.305807498326</v>
+        <v>6737.305807498325</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6949.253506040521</v>
+        <v>6949.253506040523</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7058.046186761256</v>
+        <v>7058.046186761257</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7168.759680275584</v>
+        <v>7168.759680275585</v>
       </c>
     </row>
     <row r="298">
@@ -2832,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7512.737412751164</v>
+        <v>7512.737412751163</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7752.231460870051</v>
+        <v>7752.231460870052</v>
       </c>
     </row>
     <row r="303">
@@ -2872,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>8127.349996584348</v>
+        <v>8127.349996584349</v>
       </c>
     </row>
     <row r="306">
@@ -3080,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>12272.59665615789</v>
+        <v>12272.5966561579</v>
       </c>
     </row>
     <row r="332">
@@ -3128,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>13469.4592626165</v>
+        <v>13469.45926261651</v>
       </c>
     </row>
     <row r="338">
@@ -3168,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>14531.54431022467</v>
+        <v>14531.54431022468</v>
       </c>
     </row>
     <row r="343">
@@ -3384,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>20911.82190657527</v>
+        <v>20911.82190657526</v>
       </c>
     </row>
     <row r="370">
@@ -3472,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>23495.68849284899</v>
+        <v>23495.688492849</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>23720.05480648207</v>
+        <v>23720.05480648208</v>
       </c>
     </row>
     <row r="382">
@@ -3688,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>28540.52475454921</v>
+        <v>28540.52475454922</v>
       </c>
     </row>
     <row r="408">
@@ -3712,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>28964.65898665533</v>
+        <v>28964.65898665534</v>
       </c>
     </row>
     <row r="411">
@@ -3744,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>29497.85314326866</v>
+        <v>29497.85314326865</v>
       </c>
     </row>
     <row r="415">
@@ -3784,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>30127.10183653349</v>
+        <v>30127.1018365335</v>
       </c>
     </row>
     <row r="420">
@@ -3832,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>30861.3203831812</v>
+        <v>30861.32038318119</v>
       </c>
     </row>
     <row r="426">
@@ -3912,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>32172.52117473011</v>
+        <v>32172.52117473012</v>
       </c>
     </row>
     <row r="436">
@@ -3968,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>33275.58941062048</v>
+        <v>33275.58941062049</v>
       </c>
     </row>
     <row r="443">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73618.57808726667</v>
+        <v>73618.57808726665</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>91.60472145101059</v>
+        <v>91.60472145101058</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>101.1691093742656</v>
+        <v>101.1691093742655</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>132.2204071804727</v>
+        <v>132.2204071804726</v>
       </c>
     </row>
     <row r="27">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>145.6257603862702</v>
+        <v>145.6257603862701</v>
       </c>
     </row>
     <row r="32">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>151.5306541319525</v>
+        <v>151.5306541319524</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>154.6097833617669</v>
+        <v>154.6097833617668</v>
       </c>
     </row>
     <row r="35">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>161.0351117806423</v>
+        <v>161.0351117806422</v>
       </c>
     </row>
     <row r="37">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>175.0342323972311</v>
+        <v>175.034232397231</v>
       </c>
     </row>
     <row r="41">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>190.7245552278442</v>
+        <v>190.7245552278441</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>199.2664003972087</v>
+        <v>199.2664003972086</v>
       </c>
     </row>
     <row r="47">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>213.0226319215303</v>
+        <v>213.0226319215302</v>
       </c>
     </row>
     <row r="50">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>331.8349178549779</v>
+        <v>331.8349178549778</v>
       </c>
     </row>
     <row r="69">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>348.0266710375763</v>
+        <v>348.0266710375762</v>
       </c>
     </row>
     <row r="71">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>506.3009101369786</v>
+        <v>506.3009101369785</v>
       </c>
     </row>
     <row r="87">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>566.2825206671175</v>
+        <v>566.2825206671174</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>578.8510005455261</v>
+        <v>578.8510005455259</v>
       </c>
     </row>
     <row r="93">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>617.6474584236839</v>
+        <v>617.6474584236838</v>
       </c>
     </row>
     <row r="96">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>671.7781432189756</v>
+        <v>671.7781432189755</v>
       </c>
     </row>
     <row r="100">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>742.8781990246646</v>
+        <v>742.8781990246645</v>
       </c>
     </row>
     <row r="105">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>787.1002469567968</v>
+        <v>787.1002469567967</v>
       </c>
     </row>
     <row r="108">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>832.2800436611797</v>
+        <v>832.2800436611795</v>
       </c>
     </row>
     <row r="111">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>893.6753290499316</v>
+        <v>893.6753290499315</v>
       </c>
     </row>
     <row r="115">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1505.760068392572</v>
+        <v>1505.760068392571</v>
       </c>
     </row>
     <row r="157">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1566.104932274999</v>
+        <v>1566.104932274998</v>
       </c>
     </row>
     <row r="162">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1612.757516138782</v>
+        <v>1612.757516138781</v>
       </c>
     </row>
     <row r="166">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1658.47806808587</v>
+        <v>1658.478068085869</v>
       </c>
     </row>
     <row r="170">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1923.662892670899</v>
+        <v>1923.662892670898</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1937.570868696565</v>
+        <v>1937.570868696564</v>
       </c>
     </row>
     <row r="193">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>2011.426491665116</v>
+        <v>2011.426491665115</v>
       </c>
     </row>
     <row r="198">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2624.384001818052</v>
+        <v>2624.384001818051</v>
       </c>
     </row>
     <row r="226">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2781.10592233478</v>
+        <v>2781.105922334779</v>
       </c>
     </row>
     <row r="231">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3593.240165323719</v>
+        <v>3593.240165323718</v>
       </c>
     </row>
     <row r="251">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3957.567686839235</v>
+        <v>3957.567686839234</v>
       </c>
     </row>
     <row r="258">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4766.673534567097</v>
+        <v>4766.673534567096</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4836.877624517839</v>
+        <v>4836.877624517838</v>
       </c>
     </row>
     <row r="272">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5444.913085381289</v>
+        <v>5444.913085381288</v>
       </c>
     </row>
     <row r="280">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5695.772201857311</v>
+        <v>5695.77220185731</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5782.365789630992</v>
+        <v>5782.365789630991</v>
       </c>
     </row>
     <row r="284">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5960.177586037683</v>
+        <v>5960.177586037682</v>
       </c>
     </row>
     <row r="286">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6238.881214244476</v>
+        <v>6238.881214244475</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6335.094649897819</v>
+        <v>6335.09464989782</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6433.013582019659</v>
+        <v>6433.013582019658</v>
       </c>
     </row>
     <row r="291">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6949.253506040523</v>
+        <v>6949.253506040522</v>
       </c>
     </row>
     <row r="296">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7168.759680275585</v>
+        <v>7168.759680275584</v>
       </c>
     </row>
     <row r="298">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7512.737412751163</v>
+        <v>7512.737412751164</v>
       </c>
     </row>
     <row r="301">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73618.57808726665</v>
+        <v>73618.57808726667</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>88.69181022653207</v>
+        <v>88.69181022653206</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>94.64893146898581</v>
+        <v>94.64893146898579</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>97.83371770780727</v>
+        <v>97.83371770780725</v>
       </c>
     </row>
     <row r="10">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>132.2204071804726</v>
+        <v>132.2204071804727</v>
       </c>
     </row>
     <row r="27">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>145.6257603862701</v>
+        <v>145.6257603862702</v>
       </c>
     </row>
     <row r="32">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>157.7770034640223</v>
+        <v>157.7770034640222</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>161.0351117806422</v>
+        <v>161.0351117806423</v>
       </c>
     </row>
     <row r="37">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>213.0226319215302</v>
+        <v>213.0226319215303</v>
       </c>
     </row>
     <row r="50">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>244.2566768269511</v>
+        <v>244.256676826951</v>
       </c>
     </row>
     <row r="56">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>420.6891234585885</v>
+        <v>420.6891234585884</v>
       </c>
     </row>
     <row r="79">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>483.6846183071488</v>
+        <v>483.6846183071487</v>
       </c>
     </row>
     <row r="85">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>506.3009101369785</v>
+        <v>506.3009101369786</v>
       </c>
     </row>
     <row r="87">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>578.8510005455259</v>
+        <v>578.8510005455261</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>591.6036100236922</v>
+        <v>591.6036100236921</v>
       </c>
     </row>
     <row r="94">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>617.6474584236838</v>
+        <v>617.6474584236839</v>
       </c>
     </row>
     <row r="96">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>685.7100845869236</v>
+        <v>685.7100845869235</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>699.7916577618182</v>
+        <v>699.7916577618181</v>
       </c>
     </row>
     <row r="102">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>742.8781990246645</v>
+        <v>742.8781990246644</v>
       </c>
     </row>
     <row r="105">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>787.1002469567967</v>
+        <v>787.1002469567968</v>
       </c>
     </row>
     <row r="108">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>862.8374830152934</v>
+        <v>862.8374830152933</v>
       </c>
     </row>
     <row r="113">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>971.5884095167196</v>
+        <v>971.5884095167195</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>987.2478853847049</v>
+        <v>987.2478853847048</v>
       </c>
     </row>
     <row r="121">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1403.07899162352</v>
+        <v>1403.078991623519</v>
       </c>
     </row>
     <row r="149">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1505.760068392571</v>
+        <v>1505.760068392572</v>
       </c>
     </row>
     <row r="157">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1612.757516138781</v>
+        <v>1612.757516138782</v>
       </c>
     </row>
     <row r="166">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1772.785436408891</v>
+        <v>1772.78543640889</v>
       </c>
     </row>
     <row r="180">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1923.662892670898</v>
+        <v>1923.662892670899</v>
       </c>
     </row>
     <row r="192">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>2011.426491665115</v>
+        <v>2011.426491665116</v>
       </c>
     </row>
     <row r="198">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2312.294745954508</v>
+        <v>2312.294745954507</v>
       </c>
     </row>
     <row r="214">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2781.105922334779</v>
+        <v>2781.10592233478</v>
       </c>
     </row>
     <row r="231">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2883.408167554907</v>
+        <v>2883.408167554906</v>
       </c>
     </row>
     <row r="234">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3544.864755453647</v>
+        <v>3544.864755453648</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3593.240165323718</v>
+        <v>3593.240165323719</v>
       </c>
     </row>
     <row r="251">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3795.791784084227</v>
+        <v>3795.791784084226</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3848.755498007214</v>
+        <v>3848.755498007213</v>
       </c>
     </row>
     <row r="256">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4070.321500748192</v>
+        <v>4070.321500748191</v>
       </c>
     </row>
     <row r="260">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4187.137247247165</v>
+        <v>4187.137247247164</v>
       </c>
     </row>
     <row r="262">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4836.877624517838</v>
+        <v>4836.877624517839</v>
       </c>
     </row>
     <row r="272">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5444.913085381288</v>
+        <v>5444.913085381289</v>
       </c>
     </row>
     <row r="280">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5610.683444755846</v>
+        <v>5610.683444755845</v>
       </c>
     </row>
     <row r="282">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5960.177586037682</v>
+        <v>5960.177586037683</v>
       </c>
     </row>
     <row r="286">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6433.013582019658</v>
+        <v>6433.013582019657</v>
       </c>
     </row>
     <row r="291">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6949.253506040522</v>
+        <v>6949.253506040521</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7058.046186761257</v>
+        <v>7058.046186761256</v>
       </c>
     </row>
     <row r="297">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7396.074091120538</v>
+        <v>7396.074091120537</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7512.737412751164</v>
+        <v>7512.737412751163</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7631.44624759965</v>
+        <v>7631.446247599649</v>
       </c>
     </row>
     <row r="302">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>8127.349996584349</v>
+        <v>8127.349996584348</v>
       </c>
     </row>
     <row r="306">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>9677.515176343217</v>
+        <v>9677.515176343215</v>
       </c>
     </row>
     <row r="317">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>12272.5966561579</v>
+        <v>12272.59665615789</v>
       </c>
     </row>
     <row r="332">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>14531.54431022468</v>
+        <v>14531.54431022467</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>14750.50936618235</v>
+        <v>14750.50936618234</v>
       </c>
     </row>
     <row r="344">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>18480.85238145192</v>
+        <v>18480.85238145193</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>18723.45228091124</v>
+        <v>18723.45228091125</v>
       </c>
     </row>
     <row r="361">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>20911.82190657526</v>
+        <v>20911.82190657527</v>
       </c>
     </row>
     <row r="370">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>21632.90691308899</v>
+        <v>21632.906913089</v>
       </c>
     </row>
     <row r="373">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>23495.688492849</v>
+        <v>23495.68849284899</v>
       </c>
     </row>
     <row r="381">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>26015.46448120529</v>
+        <v>26015.46448120528</v>
       </c>
     </row>
     <row r="393">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>27616.20722156596</v>
+        <v>27616.20722156597</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>27777.87253574166</v>
+        <v>27777.87253574167</v>
       </c>
     </row>
     <row r="403">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>28540.52475454922</v>
+        <v>28540.52475454921</v>
       </c>
     </row>
     <row r="408">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>28964.65898665534</v>
+        <v>28964.65898665533</v>
       </c>
     </row>
     <row r="411">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>30127.1018365335</v>
+        <v>30127.10183653349</v>
       </c>
     </row>
     <row r="420">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>30494.31171183363</v>
+        <v>30494.31171183362</v>
       </c>
     </row>
     <row r="423">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>31755.61818141458</v>
+        <v>31755.61818141457</v>
       </c>
     </row>
     <row r="433">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>32172.52117473012</v>
+        <v>32172.52117473011</v>
       </c>
     </row>
     <row r="436">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>32619.97120126884</v>
+        <v>32619.97120126883</v>
       </c>
     </row>
     <row r="439">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>88.69181022653206</v>
+        <v>88.69181022653207</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>94.64893146898579</v>
+        <v>94.64893146898582</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>97.83371770780725</v>
+        <v>97.83371770780728</v>
       </c>
     </row>
     <row r="10">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>142.7946868900306</v>
+        <v>142.7946868900307</v>
       </c>
     </row>
     <row r="31">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>151.5306541319524</v>
+        <v>151.5306541319525</v>
       </c>
     </row>
     <row r="34">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>157.7770034640222</v>
+        <v>157.7770034640223</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>175.034232397231</v>
+        <v>175.0342323972311</v>
       </c>
     </row>
     <row r="41">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>190.7245552278441</v>
+        <v>190.7245552278442</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>199.2664003972086</v>
+        <v>199.2664003972087</v>
       </c>
     </row>
     <row r="47">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>244.256676826951</v>
+        <v>244.2566768269511</v>
       </c>
     </row>
     <row r="56">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>255.8667795067677</v>
+        <v>255.8667795067678</v>
       </c>
     </row>
     <row r="58">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>316.404777638735</v>
+        <v>316.4047776387351</v>
       </c>
     </row>
     <row r="67">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>331.8349178549778</v>
+        <v>331.8349178549779</v>
       </c>
     </row>
     <row r="69">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>420.6891234585884</v>
+        <v>420.6891234585885</v>
       </c>
     </row>
     <row r="79">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>483.6846183071487</v>
+        <v>483.6846183071488</v>
       </c>
     </row>
     <row r="85">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>553.9012678382436</v>
+        <v>553.9012678382437</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>566.2825206671174</v>
+        <v>566.2825206671175</v>
       </c>
     </row>
     <row r="92">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>591.6036100236921</v>
+        <v>591.6036100236922</v>
       </c>
     </row>
     <row r="94">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>644.3838218407083</v>
+        <v>644.3838218407084</v>
       </c>
     </row>
     <row r="98">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>685.7100845869235</v>
+        <v>685.7100845869236</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>699.7916577618181</v>
+        <v>699.7916577618182</v>
       </c>
     </row>
     <row r="102">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>742.8781990246644</v>
+        <v>742.8781990246645</v>
       </c>
     </row>
     <row r="105">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>772.2440400935499</v>
+        <v>772.24404009355</v>
       </c>
     </row>
     <row r="107">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>832.2800436611795</v>
+        <v>832.2800436611798</v>
       </c>
     </row>
     <row r="111">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>862.8374830152933</v>
+        <v>862.8374830152934</v>
       </c>
     </row>
     <row r="113">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>924.7318154874939</v>
+        <v>924.731815487494</v>
       </c>
     </row>
     <row r="117">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>955.9439125349793</v>
+        <v>955.9439125349794</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>971.5884095167195</v>
+        <v>971.5884095167197</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>987.2478853847048</v>
+        <v>987.247885384705</v>
       </c>
     </row>
     <row r="121">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1403.078991623519</v>
+        <v>1403.07899162352</v>
       </c>
     </row>
     <row r="149">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1566.104932274998</v>
+        <v>1566.104932274999</v>
       </c>
     </row>
     <row r="162">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1658.478068085869</v>
+        <v>1658.47806808587</v>
       </c>
     </row>
     <row r="170">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1772.78543640889</v>
+        <v>1772.785436408891</v>
       </c>
     </row>
     <row r="180">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1937.570868696564</v>
+        <v>1937.570868696565</v>
       </c>
     </row>
     <row r="193">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2312.294745954507</v>
+        <v>2312.294745954508</v>
       </c>
     </row>
     <row r="214">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2566.309210844288</v>
+        <v>2566.309210844289</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2595.026139438291</v>
+        <v>2595.026139438292</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2654.391971760314</v>
+        <v>2654.391971760315</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2685.059144491669</v>
+        <v>2685.05914449167</v>
       </c>
     </row>
     <row r="228">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2883.408167554906</v>
+        <v>2883.408167554907</v>
       </c>
     </row>
     <row r="234">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3188.639528214279</v>
+        <v>3188.63952821428</v>
       </c>
     </row>
     <row r="242">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3795.791784084226</v>
+        <v>3795.791784084227</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3848.755498007213</v>
+        <v>3848.755498007214</v>
       </c>
     </row>
     <row r="256">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4070.321500748191</v>
+        <v>4070.321500748192</v>
       </c>
     </row>
     <row r="260">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4187.137247247164</v>
+        <v>4187.137247247165</v>
       </c>
     </row>
     <row r="262">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4697.684464847419</v>
+        <v>4697.68446484742</v>
       </c>
     </row>
     <row r="270">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4836.877624517839</v>
+        <v>4836.87762451784</v>
       </c>
     </row>
     <row r="272">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5610.683444755845</v>
+        <v>5610.683444755846</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5695.77220185731</v>
+        <v>5695.772201857311</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5782.365789630991</v>
+        <v>5782.365789630992</v>
       </c>
     </row>
     <row r="284">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6144.343473661941</v>
+        <v>6144.343473661942</v>
       </c>
     </row>
     <row r="288">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6433.013582019657</v>
+        <v>6433.013582019658</v>
       </c>
     </row>
     <row r="291">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6634.088652203365</v>
+        <v>6634.088652203366</v>
       </c>
     </row>
     <row r="293">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6949.253506040521</v>
+        <v>6949.253506040522</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7058.046186761256</v>
+        <v>7058.046186761258</v>
       </c>
     </row>
     <row r="297">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7396.074091120537</v>
+        <v>7396.074091120538</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7512.737412751163</v>
+        <v>7512.737412751164</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7631.446247599649</v>
+        <v>7631.44624759965</v>
       </c>
     </row>
     <row r="302">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>8796.855413979205</v>
+        <v>8796.855413979203</v>
       </c>
     </row>
     <row r="311">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>9677.515176343215</v>
+        <v>9677.515176343217</v>
       </c>
     </row>
     <row r="317">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>11343.89590465094</v>
+        <v>11343.89590465095</v>
       </c>
     </row>
     <row r="327">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>13469.45926261651</v>
+        <v>13469.4592626165</v>
       </c>
     </row>
     <row r="338">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>14750.50936618234</v>
+        <v>14750.50936618235</v>
       </c>
     </row>
     <row r="344">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>18480.85238145193</v>
+        <v>18480.85238145192</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>18723.45228091125</v>
+        <v>18723.45228091124</v>
       </c>
     </row>
     <row r="361">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>19209.88612058015</v>
+        <v>19209.88612058014</v>
       </c>
     </row>
     <row r="363">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>20427.1940253923</v>
+        <v>20427.19402539229</v>
       </c>
     </row>
     <row r="368">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>20911.82190657527</v>
+        <v>20911.82190657526</v>
       </c>
     </row>
     <row r="370">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>21393.50864937594</v>
+        <v>21393.50864937593</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>21632.906913089</v>
+        <v>21632.90691308899</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>21871.15987206622</v>
+        <v>21871.15987206621</v>
       </c>
     </row>
     <row r="374">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>23269.14928216789</v>
+        <v>23269.14928216788</v>
       </c>
     </row>
     <row r="380">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>23720.05480648208</v>
+        <v>23720.05480648207</v>
       </c>
     </row>
     <row r="382">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>24378.99070439686</v>
+        <v>24378.99070439685</v>
       </c>
     </row>
     <row r="385">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>26015.46448120528</v>
+        <v>26015.46448120529</v>
       </c>
     </row>
     <row r="393">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>27616.20722156597</v>
+        <v>27616.20722156596</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>27777.87253574167</v>
+        <v>27777.87253574166</v>
       </c>
     </row>
     <row r="403">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>30494.31171183362</v>
+        <v>30494.31171183363</v>
       </c>
     </row>
     <row r="423">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>31755.61818141457</v>
+        <v>31755.61818141458</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>31891.62639181274</v>
+        <v>31891.62639181273</v>
       </c>
     </row>
     <row r="434">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>32172.52117473011</v>
+        <v>32172.52117473012</v>
       </c>
     </row>
     <row r="436">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73618.57808726667</v>
+        <v>73618.57808726665</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>94.64893146898582</v>
+        <v>94.64893146898581</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>97.83371770780728</v>
+        <v>97.83371770780727</v>
       </c>
     </row>
     <row r="10">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>132.2204071804727</v>
+        <v>132.2204071804726</v>
       </c>
     </row>
     <row r="27">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>142.7946868900307</v>
+        <v>142.7946868900306</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>145.6257603862702</v>
+        <v>145.6257603862701</v>
       </c>
     </row>
     <row r="32">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>151.5306541319525</v>
+        <v>151.5306541319524</v>
       </c>
     </row>
     <row r="34">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>161.0351117806423</v>
+        <v>161.0351117806422</v>
       </c>
     </row>
     <row r="37">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>175.0342323972311</v>
+        <v>175.034232397231</v>
       </c>
     </row>
     <row r="41">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>190.7245552278442</v>
+        <v>190.7245552278441</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>199.2664003972087</v>
+        <v>199.2664003972086</v>
       </c>
     </row>
     <row r="47">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>213.0226319215303</v>
+        <v>213.0226319215302</v>
       </c>
     </row>
     <row r="50">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>255.8667795067678</v>
+        <v>255.8667795067677</v>
       </c>
     </row>
     <row r="58">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>316.4047776387351</v>
+        <v>316.404777638735</v>
       </c>
     </row>
     <row r="67">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>331.8349178549779</v>
+        <v>331.8349178549778</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>506.3009101369786</v>
+        <v>506.3009101369785</v>
       </c>
     </row>
     <row r="87">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>553.9012678382437</v>
+        <v>553.9012678382436</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>566.2825206671175</v>
+        <v>566.2825206671174</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>578.8510005455261</v>
+        <v>578.8510005455259</v>
       </c>
     </row>
     <row r="93">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>617.6474584236839</v>
+        <v>617.6474584236838</v>
       </c>
     </row>
     <row r="96">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>644.3838218407084</v>
+        <v>644.3838218407083</v>
       </c>
     </row>
     <row r="98">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>772.24404009355</v>
+        <v>772.2440400935499</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>787.1002469567968</v>
+        <v>787.1002469567967</v>
       </c>
     </row>
     <row r="108">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>832.2800436611798</v>
+        <v>832.2800436611795</v>
       </c>
     </row>
     <row r="111">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>924.731815487494</v>
+        <v>924.7318154874939</v>
       </c>
     </row>
     <row r="117">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>955.9439125349794</v>
+        <v>955.9439125349793</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>971.5884095167197</v>
+        <v>971.5884095167196</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>987.247885384705</v>
+        <v>987.2478853847049</v>
       </c>
     </row>
     <row r="121">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1505.760068392572</v>
+        <v>1505.760068392571</v>
       </c>
     </row>
     <row r="157">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1566.104932274999</v>
+        <v>1566.104932274998</v>
       </c>
     </row>
     <row r="162">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1612.757516138782</v>
+        <v>1612.757516138781</v>
       </c>
     </row>
     <row r="166">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1658.47806808587</v>
+        <v>1658.478068085869</v>
       </c>
     </row>
     <row r="170">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1923.662892670899</v>
+        <v>1923.662892670898</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1937.570868696565</v>
+        <v>1937.570868696564</v>
       </c>
     </row>
     <row r="193">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>2011.426491665116</v>
+        <v>2011.426491665115</v>
       </c>
     </row>
     <row r="198">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2566.309210844289</v>
+        <v>2566.309210844288</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2595.026139438292</v>
+        <v>2595.026139438291</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2654.391971760315</v>
+        <v>2654.391971760314</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2685.05914449167</v>
+        <v>2685.059144491669</v>
       </c>
     </row>
     <row r="228">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2781.10592233478</v>
+        <v>2781.105922334779</v>
       </c>
     </row>
     <row r="231">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3188.63952821428</v>
+        <v>3188.639528214279</v>
       </c>
     </row>
     <row r="242">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3544.864755453648</v>
+        <v>3544.864755453647</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3593.240165323719</v>
+        <v>3593.240165323718</v>
       </c>
     </row>
     <row r="251">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4697.68446484742</v>
+        <v>4697.684464847419</v>
       </c>
     </row>
     <row r="270">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4836.87762451784</v>
+        <v>4836.877624517838</v>
       </c>
     </row>
     <row r="272">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5444.913085381289</v>
+        <v>5444.913085381288</v>
       </c>
     </row>
     <row r="280">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5695.772201857311</v>
+        <v>5695.77220185731</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5782.365789630992</v>
+        <v>5782.365789630991</v>
       </c>
     </row>
     <row r="284">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5960.177586037683</v>
+        <v>5960.177586037682</v>
       </c>
     </row>
     <row r="286">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6144.343473661942</v>
+        <v>6144.343473661941</v>
       </c>
     </row>
     <row r="288">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6634.088652203366</v>
+        <v>6634.088652203365</v>
       </c>
     </row>
     <row r="293">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7058.046186761258</v>
+        <v>7058.046186761257</v>
       </c>
     </row>
     <row r="297">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>8127.349996584348</v>
+        <v>8127.349996584349</v>
       </c>
     </row>
     <row r="306">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>8796.855413979203</v>
+        <v>8796.855413979205</v>
       </c>
     </row>
     <row r="311">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>11343.89590465095</v>
+        <v>11343.89590465094</v>
       </c>
     </row>
     <row r="327">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>12272.59665615789</v>
+        <v>12272.5966561579</v>
       </c>
     </row>
     <row r="332">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>13469.4592626165</v>
+        <v>13469.45926261651</v>
       </c>
     </row>
     <row r="338">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>14531.54431022467</v>
+        <v>14531.54431022468</v>
       </c>
     </row>
     <row r="343">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>19209.88612058014</v>
+        <v>19209.88612058015</v>
       </c>
     </row>
     <row r="363">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>20427.19402539229</v>
+        <v>20427.1940253923</v>
       </c>
     </row>
     <row r="368">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>21393.50864937593</v>
+        <v>21393.50864937594</v>
       </c>
     </row>
     <row r="372">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>21871.15987206621</v>
+        <v>21871.15987206622</v>
       </c>
     </row>
     <row r="374">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>23269.14928216788</v>
+        <v>23269.14928216789</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>23495.68849284899</v>
+        <v>23495.688492849</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>23720.05480648207</v>
+        <v>23720.05480648208</v>
       </c>
     </row>
     <row r="382">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>24378.99070439685</v>
+        <v>24378.99070439686</v>
       </c>
     </row>
     <row r="385">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>28540.52475454921</v>
+        <v>28540.52475454922</v>
       </c>
     </row>
     <row r="408">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>28964.65898665533</v>
+        <v>28964.65898665534</v>
       </c>
     </row>
     <row r="411">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>30127.10183653349</v>
+        <v>30127.1018365335</v>
       </c>
     </row>
     <row r="420">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>31891.62639181273</v>
+        <v>31891.62639181274</v>
       </c>
     </row>
     <row r="434">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>32619.97120126883</v>
+        <v>32619.97120126884</v>
       </c>
     </row>
     <row r="439">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73618.57808726665</v>
+        <v>73618.57808726667</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>94.64893146898581</v>
+        <v>94.64893146898582</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>97.83371770780727</v>
+        <v>97.83371770780728</v>
       </c>
     </row>
     <row r="10">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>132.2204071804726</v>
+        <v>132.2204071804727</v>
       </c>
     </row>
     <row r="27">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>142.7946868900306</v>
+        <v>142.7946868900307</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>145.6257603862701</v>
+        <v>145.6257603862702</v>
       </c>
     </row>
     <row r="32">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>151.5306541319524</v>
+        <v>151.5306541319525</v>
       </c>
     </row>
     <row r="34">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>161.0351117806422</v>
+        <v>161.0351117806423</v>
       </c>
     </row>
     <row r="37">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>175.034232397231</v>
+        <v>175.0342323972311</v>
       </c>
     </row>
     <row r="41">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>190.7245552278441</v>
+        <v>190.7245552278442</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>199.2664003972086</v>
+        <v>199.2664003972087</v>
       </c>
     </row>
     <row r="47">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>213.0226319215302</v>
+        <v>213.0226319215303</v>
       </c>
     </row>
     <row r="50">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>255.8667795067677</v>
+        <v>255.8667795067678</v>
       </c>
     </row>
     <row r="58">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>316.404777638735</v>
+        <v>316.4047776387351</v>
       </c>
     </row>
     <row r="67">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>331.8349178549778</v>
+        <v>331.8349178549779</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>506.3009101369785</v>
+        <v>506.3009101369786</v>
       </c>
     </row>
     <row r="87">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>553.9012678382436</v>
+        <v>553.9012678382437</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>566.2825206671174</v>
+        <v>566.2825206671175</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>578.8510005455259</v>
+        <v>578.8510005455261</v>
       </c>
     </row>
     <row r="93">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>617.6474584236838</v>
+        <v>617.6474584236839</v>
       </c>
     </row>
     <row r="96">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>644.3838218407083</v>
+        <v>644.3838218407084</v>
       </c>
     </row>
     <row r="98">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>772.2440400935499</v>
+        <v>772.24404009355</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>787.1002469567967</v>
+        <v>787.1002469567968</v>
       </c>
     </row>
     <row r="108">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>832.2800436611795</v>
+        <v>832.2800436611798</v>
       </c>
     </row>
     <row r="111">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>924.7318154874939</v>
+        <v>924.731815487494</v>
       </c>
     </row>
     <row r="117">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>955.9439125349793</v>
+        <v>955.9439125349794</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>971.5884095167196</v>
+        <v>971.5884095167197</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>987.2478853847049</v>
+        <v>987.247885384705</v>
       </c>
     </row>
     <row r="121">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1505.760068392571</v>
+        <v>1505.760068392572</v>
       </c>
     </row>
     <row r="157">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1566.104932274998</v>
+        <v>1566.104932274999</v>
       </c>
     </row>
     <row r="162">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1612.757516138781</v>
+        <v>1612.757516138782</v>
       </c>
     </row>
     <row r="166">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1658.478068085869</v>
+        <v>1658.47806808587</v>
       </c>
     </row>
     <row r="170">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1923.662892670898</v>
+        <v>1923.662892670899</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1937.570868696564</v>
+        <v>1937.570868696565</v>
       </c>
     </row>
     <row r="193">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>2011.426491665115</v>
+        <v>2011.426491665116</v>
       </c>
     </row>
     <row r="198">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2566.309210844288</v>
+        <v>2566.309210844289</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2595.026139438291</v>
+        <v>2595.026139438292</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2654.391971760314</v>
+        <v>2654.391971760315</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2685.059144491669</v>
+        <v>2685.05914449167</v>
       </c>
     </row>
     <row r="228">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2781.105922334779</v>
+        <v>2781.10592233478</v>
       </c>
     </row>
     <row r="231">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3188.639528214279</v>
+        <v>3188.63952821428</v>
       </c>
     </row>
     <row r="242">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3544.864755453647</v>
+        <v>3544.864755453648</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3593.240165323718</v>
+        <v>3593.240165323719</v>
       </c>
     </row>
     <row r="251">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4697.684464847419</v>
+        <v>4697.68446484742</v>
       </c>
     </row>
     <row r="270">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4836.877624517838</v>
+        <v>4836.87762451784</v>
       </c>
     </row>
     <row r="272">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5444.913085381288</v>
+        <v>5444.913085381289</v>
       </c>
     </row>
     <row r="280">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5695.77220185731</v>
+        <v>5695.772201857311</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5782.365789630991</v>
+        <v>5782.365789630992</v>
       </c>
     </row>
     <row r="284">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5960.177586037682</v>
+        <v>5960.177586037683</v>
       </c>
     </row>
     <row r="286">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6144.343473661941</v>
+        <v>6144.343473661942</v>
       </c>
     </row>
     <row r="288">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6634.088652203365</v>
+        <v>6634.088652203366</v>
       </c>
     </row>
     <row r="293">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7058.046186761257</v>
+        <v>7058.046186761258</v>
       </c>
     </row>
     <row r="297">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>8127.349996584349</v>
+        <v>8127.349996584348</v>
       </c>
     </row>
     <row r="306">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>8796.855413979205</v>
+        <v>8796.855413979203</v>
       </c>
     </row>
     <row r="311">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>11343.89590465094</v>
+        <v>11343.89590465095</v>
       </c>
     </row>
     <row r="327">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>12272.5966561579</v>
+        <v>12272.59665615789</v>
       </c>
     </row>
     <row r="332">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>13469.45926261651</v>
+        <v>13469.4592626165</v>
       </c>
     </row>
     <row r="338">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>14531.54431022468</v>
+        <v>14531.54431022467</v>
       </c>
     </row>
     <row r="343">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>19209.88612058015</v>
+        <v>19209.88612058014</v>
       </c>
     </row>
     <row r="363">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>20427.1940253923</v>
+        <v>20427.19402539229</v>
       </c>
     </row>
     <row r="368">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>21393.50864937594</v>
+        <v>21393.50864937593</v>
       </c>
     </row>
     <row r="372">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>21871.15987206622</v>
+        <v>21871.15987206621</v>
       </c>
     </row>
     <row r="374">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>23269.14928216789</v>
+        <v>23269.14928216788</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>23495.688492849</v>
+        <v>23495.68849284899</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>23720.05480648208</v>
+        <v>23720.05480648207</v>
       </c>
     </row>
     <row r="382">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>24378.99070439686</v>
+        <v>24378.99070439685</v>
       </c>
     </row>
     <row r="385">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>28540.52475454922</v>
+        <v>28540.52475454921</v>
       </c>
     </row>
     <row r="408">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>28964.65898665534</v>
+        <v>28964.65898665533</v>
       </c>
     </row>
     <row r="411">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>30127.1018365335</v>
+        <v>30127.10183653349</v>
       </c>
     </row>
     <row r="420">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>31891.62639181274</v>
+        <v>31891.62639181273</v>
       </c>
     </row>
     <row r="434">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>32619.97120126884</v>
+        <v>32619.97120126883</v>
       </c>
     </row>
     <row r="439">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_total.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73618.57808726667</v>
+        <v>73618.5780872929</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>88.69181022653207</v>
+        <v>88.69181022844168</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>90.1324051160025</v>
+        <v>90.13240511804366</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>91.60472145101058</v>
+        <v>91.60472145319784</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>93.10985139846912</v>
+        <v>93.1098514008025</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>94.64893146898582</v>
+        <v>94.64893147142163</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>96.22314384639419</v>
+        <v>96.22314384900528</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>97.83371770780728</v>
+        <v>97.83371771059366</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>99.48193052973886</v>
+        <v>99.4819305327005</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>101.1691093742655</v>
+        <v>101.1691093773734</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>102.8966321511822</v>
+        <v>102.8966321544654</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>104.6659288507498</v>
+        <v>104.6659288542519</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>106.4784827399891</v>
+        <v>106.4784827437103</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>108.3358315183866</v>
+        <v>108.3358315222977</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>110.2395684248588</v>
+        <v>110.239568428989</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>112.1913432911427</v>
+        <v>112.1913432955065</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>114.1928635332839</v>
+        <v>114.1928635379104</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>116.2458950751387</v>
+        <v>116.2458950800135</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>118.3522631963763</v>
+        <v>118.3522632015284</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>120.5138532967279</v>
+        <v>120.5138533021137</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>122.7326115700909</v>
+        <v>122.7326115758124</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>125.0105455790114</v>
+        <v>125.0105455850102</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>127.349724722352</v>
+        <v>127.3497247286866</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>129.7522805878929</v>
+        <v>129.7522805945486</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>132.2204071804727</v>
+        <v>132.2204071874349</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>134.7563610184364</v>
+        <v>134.7563610257926</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>137.3624610886356</v>
+        <v>137.362461096313</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>140.0410886518276</v>
+        <v>140.0410886599427</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>142.7946868900307</v>
+        <v>142.7946868985107</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>145.6257603862702</v>
+        <v>145.6257603951589</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>148.5368744289559</v>
+        <v>148.5368744382534</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>151.5306541319525</v>
+        <v>151.5306541416877</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>154.6097833617668</v>
+        <v>154.6097833719545</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>157.7770034640223</v>
+        <v>157.7770034746769</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>161.0351117806423</v>
+        <v>161.0351117917639</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>164.386959950612</v>
+        <v>164.3869599622298</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>167.8354519858874</v>
+        <v>167.835451998016</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>171.3835421164984</v>
+        <v>171.3835421291523</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>175.0342323972311</v>
+        <v>175.0342324104541</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>178.7905700700229</v>
+        <v>178.7905700837423</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>182.6556446757529</v>
+        <v>182.6556446900414</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>186.6325849116978</v>
+        <v>186.6325849265409</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>190.7245552278442</v>
+        <v>190.7245552433293</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>194.9347521603064</v>
+        <v>194.934752176419</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>199.2664003972087</v>
+        <v>199.2664004138469</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>203.7227485748604</v>
+        <v>203.722748592199</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>208.3070648037165</v>
+        <v>208.3070648216973</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>213.0226319215303</v>
+        <v>213.0226319401242</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>217.8727424752865</v>
+        <v>217.8727424945809</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>222.8606934329769</v>
+        <v>222.8606934529283</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>227.989780626558</v>
+        <v>227.98978064721</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>233.263292930356</v>
+        <v>233.2632929517378</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>238.6845061783118</v>
+        <v>238.6845062003943</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>244.2566768269511</v>
+        <v>244.2566768497635</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>249.9830353689721</v>
+        <v>249.9830353924853</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>255.8667795067678</v>
+        <v>255.8667795310255</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>261.9110670950682</v>
+        <v>261.9110671200997</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>268.1190088616872</v>
+        <v>268.1190088874052</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>274.4936609197061</v>
+        <v>274.4936609462416</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>281.0380170835587</v>
+        <v>281.038017110839</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>287.7550010030068</v>
+        <v>287.7550010309882</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>294.6474581307731</v>
+        <v>294.6474581595723</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>301.7181475419275</v>
+        <v>301.7181475714717</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>308.9697336208652</v>
+        <v>308.9697336511835</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>316.4047776387351</v>
+        <v>316.4047776698712</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>324.0257292389169</v>
+        <v>324.02572927074</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>331.8349178549779</v>
+        <v>331.8349178875609</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>339.8345440837455</v>
+        <v>339.8345441170883</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>348.0266710375762</v>
+        <v>348.026671071679</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>356.4132157016909</v>
+        <v>356.413215736481</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>364.9959403241342</v>
+        <v>364.9959403597134</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>373.776443864462</v>
+        <v>373.7764439007721</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>382.7561535314517</v>
+        <v>382.7561535684202</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>391.9363164383709</v>
+        <v>391.9363164760706</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>401.3179914064914</v>
+        <v>401.3179914448204</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>410.902040947757</v>
+        <v>410.9020409867882</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>420.6891234585885</v>
+        <v>420.6891234982783</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>430.6796856561863</v>
+        <v>430.6796856964619</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>440.8739552907679</v>
+        <v>440.8739553316441</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>451.2719341657563</v>
+        <v>451.2719342072331</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>461.8733914992135</v>
+        <v>461.8733915412326</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>472.6778576593608</v>
+        <v>472.677857701908</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>483.6846183071488</v>
+        <v>483.6846183502093</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>494.8927089782218</v>
+        <v>494.8927090217813</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>506.3009101369786</v>
+        <v>506.3009101809352</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>517.9077427331812</v>
+        <v>517.9077427776077</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>529.7114642940453</v>
+        <v>529.7114643387963</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>541.7100655808406</v>
+        <v>541.710065626018</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>553.9012678382437</v>
+        <v>553.9012678836583</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>566.2825206671175</v>
+        <v>566.2825207128568</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>578.8510005455261</v>
+        <v>578.8510005915318</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>591.6036100236922</v>
+        <v>591.6036100698191</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>604.5369776177221</v>
+        <v>604.5369776640864</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>617.6474584236839</v>
+        <v>617.6474584701257</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>630.9311354718585</v>
+        <v>630.931135518334</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>644.3838218407084</v>
+        <v>644.383821887276</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>658.0010635459139</v>
+        <v>658.0010635924282</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>671.7781432189755</v>
+        <v>671.7781432655091</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>685.7100845869236</v>
+        <v>685.7100846332584</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>699.7916577618182</v>
+        <v>699.7916578080851</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>714.0173853482879</v>
+        <v>714.017385394356</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>728.3815493710769</v>
+        <v>728.3815494168734</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>742.8781990246645</v>
+        <v>742.878199070204</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>757.5011592446398</v>
+        <v>757.501159289835</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>772.24404009355</v>
+        <v>772.2440401383717</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>787.1002469567968</v>
+        <v>787.1002470011872</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>802.0629915355252</v>
+        <v>802.0629915794694</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>817.1253036250267</v>
+        <v>817.1253036684523</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>832.2800436611798</v>
+        <v>832.2800437040281</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>847.5199160152378</v>
+        <v>847.5199160574801</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>862.8374830152934</v>
+        <v>862.8374830568569</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>878.2251796674813</v>
+        <v>878.225179708395</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>893.6753290499315</v>
+        <v>893.6753290900791</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>909.1801583466297</v>
+        <v>909.1801583859964</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>924.731815487494</v>
+        <v>924.7318155260508</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>940.3223863574608</v>
+        <v>940.3223863951641</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>955.9439125349794</v>
+        <v>955.9439125717709</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>971.5884095167197</v>
+        <v>971.5884095525414</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>987.247885384705</v>
+        <v>987.2478854195857</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>1002.914359867941</v>
+        <v>1002.914359901837</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>1018.579883749613</v>
+        <v>1018.579883782423</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>1034.236558568094</v>
+        <v>1034.236558599861</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>1049.876556558889</v>
+        <v>1049.87655658957</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>1065.492140782447</v>
+        <v>1065.492140812012</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>1081.075685381662</v>
+        <v>1081.075685410068</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>1096.619695910917</v>
+        <v>1096.619695938178</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>1112.116829678925</v>
+        <v>1112.116829704924</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>1127.559916044423</v>
+        <v>1127.559916069321</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>1142.941976606483</v>
+        <v>1142.94197663012</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>1158.25624522623</v>
+        <v>1158.256245248605</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>1173.496187822189</v>
+        <v>1173.496187843361</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>1188.65552187664</v>
+        <v>1188.65552189655</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>1203.728235592487</v>
+        <v>1203.728235611194</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1218.708606643434</v>
+        <v>1218.708606660807</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1233.591220454369</v>
+        <v>1233.59122047054</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1248.370987958409</v>
+        <v>1248.370987973361</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1263.043162771194</v>
+        <v>1263.043162784885</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1277.603357727678</v>
+        <v>1277.603357740136</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1292.047560729649</v>
+        <v>1292.047560740903</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1306.372149850876</v>
+        <v>1306.372149860912</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1320.573907651296</v>
+        <v>1320.573907660158</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1334.650034654624</v>
+        <v>1334.65003466231</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1348.598161943119</v>
+        <v>1348.598161949704</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1362.416362830658</v>
+        <v>1362.416362836068</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1376.103163573283</v>
+        <v>1376.103163577679</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1389.657553084983</v>
+        <v>1389.657553088276</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1403.07899162352</v>
+        <v>1403.078991625783</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1416.367418420922</v>
+        <v>1416.367418422201</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1429.523258232478</v>
+        <v>1429.523258232814</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1442.547426782122</v>
+        <v>1442.547426781602</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1455.441335089534</v>
+        <v>1455.441335088116</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1468.206892662443</v>
+        <v>1468.206892660184</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1480.846509547421</v>
+        <v>1480.84650954441</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1493.363097231285</v>
+        <v>1493.363097227491</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1505.760068392572</v>
+        <v>1505.760068388185</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1518.041335506773</v>
+        <v>1518.041335501691</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1530.211308308496</v>
+        <v>1530.211308302922</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1542.274890125082</v>
+        <v>1542.274890118887</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1554.237473092654</v>
+        <v>1554.237473086083</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1566.104932274999</v>
+        <v>1566.104932267979</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1577.883618706439</v>
+        <v>1577.88361869906</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1589.580351384748</v>
+        <v>1589.580351377124</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1601.202408244005</v>
+        <v>1601.202408236122</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1612.757516138782</v>
+        <v>1612.757516130727</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1624.253839878029</v>
+        <v>1624.253839869875</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1635.699970347051</v>
+        <v>1635.699970338871</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1647.104911759521</v>
+        <v>1647.104911751314</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1658.47806808587</v>
+        <v>1658.478068077768</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1669.829228706177</v>
+        <v>1669.829228698209</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1681.168553337097</v>
+        <v>1681.168553329307</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1692.506556286538</v>
+        <v>1692.506556278983</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1703.854090090603</v>
+        <v>1703.854090083429</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1715.222328589659</v>
+        <v>1715.222328582808</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1726.622749501247</v>
+        <v>1726.622749494864</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1738.067116550335</v>
+        <v>1738.067116544391</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1749.56746121734</v>
+        <v>1749.567461211982</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1761.136064165246</v>
+        <v>1761.136064160501</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1772.785436408891</v>
+        <v>1772.785436404818</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1784.528300288356</v>
+        <v>1784.528300284984</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1796.377570310236</v>
+        <v>1796.377570307624</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1808.346333919334</v>
+        <v>1808.346333917539</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1820.447832263002</v>
+        <v>1820.447832262083</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1832.695441010339</v>
+        <v>1832.695441010353</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1845.10265128859</v>
+        <v>1845.102651289538</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1857.683050795343</v>
+        <v>1857.683050797312</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1870.450305146765</v>
+        <v>1870.450305149726</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1883.418139520283</v>
+        <v>1883.418139524353</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1896.600320645599</v>
+        <v>1896.600320650836</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1910.01063920194</v>
+        <v>1910.010639208314</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1923.662892670899</v>
+        <v>1923.662892678439</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1937.570868696565</v>
+        <v>1937.57086870533</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1951.748329003023</v>
+        <v>1951.7483290131</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1966.208993911227</v>
+        <v>1966.208993922529</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1980.966527501711</v>
+        <v>1980.966527514324</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1996.034523463341</v>
+        <v>1996.034523477324</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>2011.426491665116</v>
+        <v>2011.426491680382</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>2027.155845487039</v>
+        <v>2027.155845503763</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>2043.235889942884</v>
+        <v>2043.23588996089</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>2059.679810622964</v>
+        <v>2059.679810642428</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>2076.500663485257</v>
+        <v>2076.500663506149</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>2093.711365517127</v>
+        <v>2093.711365539417</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>2111.325157419792</v>
+        <v>2111.325157443457</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>2129.353763727709</v>
+        <v>2129.353763752888</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>2147.810060463375</v>
+        <v>2147.810060489924</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>2166.706333667456</v>
+        <v>2166.706333695463</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>2186.054697407728</v>
+        <v>2186.054697437221</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>2205.867089992382</v>
+        <v>2205.867090023245</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>2226.155271136069</v>
+        <v>2226.155271168301</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>2246.930820077715</v>
+        <v>2246.930820111462</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>2268.205134647697</v>
+        <v>2268.205134682842</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>2289.989431279144</v>
+        <v>2289.989431315658</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>2312.294745954508</v>
+        <v>2312.29474599239</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>2335.131936077768</v>
+        <v>2335.13193611702</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>2358.511683260375</v>
+        <v>2358.511683300966</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>2382.444497003528</v>
+        <v>2382.44449704543</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>2406.940719261552</v>
+        <v>2406.940719304821</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>2432.010529867054</v>
+        <v>2432.010529911575</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>2457.663952795366</v>
+        <v>2457.663952841256</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>2483.910863246595</v>
+        <v>2483.91086329359</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>2510.760995522639</v>
+        <v>2510.760995570944</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>2538.223951666146</v>
+        <v>2538.223951715526</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>2566.309210844289</v>
+        <v>2566.309210894948</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>2595.026139438292</v>
+        <v>2595.026139490026</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>2624.384001818051</v>
+        <v>2624.384001870891</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>2654.391971760315</v>
+        <v>2654.391971814316</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>2685.05914449167</v>
+        <v>2685.059144546571</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2716.394549310288</v>
+        <v>2716.394549366264</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2748.407162762421</v>
+        <v>2748.407162819412</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2781.10592233478</v>
+        <v>2781.105922392699</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2814.499740632002</v>
+        <v>2814.499740690732</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2848.597519998396</v>
+        <v>2848.597520058082</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2883.408167554907</v>
+        <v>2883.408167615461</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2918.940610613508</v>
+        <v>2918.940610674785</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2955.203812430274</v>
+        <v>2955.203812492359</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2992.206788266914</v>
+        <v>2992.206788329721</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>3029.958621720432</v>
+        <v>3029.958621783902</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>3068.468481286629</v>
+        <v>3068.468481350789</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>3107.745637122719</v>
+        <v>3107.745637187424</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>3147.799477972093</v>
+        <v>3147.799478037429</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>3188.63952821428</v>
+        <v>3188.639528280101</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>3230.275465009387</v>
+        <v>3230.27546507578</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>3272.717135496779</v>
+        <v>3272.717135563598</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>3315.974574014058</v>
+        <v>3315.974574081302</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>3360.058019304885</v>
+        <v>3360.058019372525</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>3404.977931674827</v>
+        <v>3404.977931742772</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>3450.745010066682</v>
+        <v>3450.745010134962</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>3497.370209015824</v>
+        <v>3497.370209084437</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>3544.864755453648</v>
+        <v>3544.864755522449</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>3593.240165323719</v>
+        <v>3593.240165392736</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>3642.508259977291</v>
+        <v>3642.508260046466</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>3692.681182310124</v>
+        <v>3692.681182379396</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>3743.771412611126</v>
+        <v>3743.771412680494</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>3795.791784084227</v>
+        <v>3795.791784153691</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>3848.755498007214</v>
+        <v>3848.755498076655</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3902.676138496594</v>
+        <v>3902.676138566071</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3957.567686839234</v>
+        <v>3957.567686908628</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>4013.444535354052</v>
+        <v>4013.44453542342</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>4070.321500748192</v>
+        <v>4070.321500817358</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>4128.21383693183</v>
+        <v>4128.213837000853</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>4187.137247247165</v>
+        <v>4187.137247315984</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4247.107896081699</v>
+        <v>4247.10789615043</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4308.142419816663</v>
+        <v>4308.142419885013</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4370.257937073893</v>
+        <v>4370.257937142153</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4433.472058224871</v>
+        <v>4433.472058292572</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4497.802894102534</v>
+        <v>4497.802894169968</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4563.269063892452</v>
+        <v>4563.269063959558</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4629.889702142411</v>
+        <v>4629.889702209073</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4697.68446484742</v>
+        <v>4697.684464913634</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4766.673534567096</v>
+        <v>4766.673534632922</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4836.87762451784</v>
+        <v>4836.8776245831</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4908.317981596292</v>
+        <v>4908.317981661045</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4981.016388274292</v>
+        <v>4981.016388338536</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>5054.995163316841</v>
+        <v>5054.995163380459</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>5130.277161264896</v>
+        <v>5130.277161327828</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>5206.88577062387</v>
+        <v>5206.885770686234</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>5284.84491070417</v>
+        <v>5284.844910765903</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>5364.1790270475</v>
+        <v>5364.179027108488</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>5444.913085381289</v>
+        <v>5444.913085441414</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>5527.072564034875</v>
+        <v>5527.072564094427</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>5610.683444755846</v>
+        <v>5610.683444814534</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>5695.772201857311</v>
+        <v>5695.772201915191</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>5782.365789630992</v>
+        <v>5782.365789688064</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>5870.491627956438</v>
+        <v>5870.491628012646</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>5960.177586037683</v>
+        <v>5960.177586092967</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>6051.451964198844</v>
+        <v>6051.451964253145</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>6144.343473661942</v>
+        <v>6144.343473715437</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>6238.881214244475</v>
+        <v>6238.881214296874</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>6335.09464989782</v>
+        <v>6335.094649949178</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>6433.013582019658</v>
+        <v>6433.013582070154</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>6532.668120467616</v>
+        <v>6532.668120516901</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>6634.088652203366</v>
+        <v>6634.088652251438</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>6737.305807498325</v>
+        <v>6737.305807545538</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>6842.350423636934</v>
+        <v>6842.350423682763</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>6949.253506040522</v>
+        <v>6949.253506085203</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>7058.046186761258</v>
+        <v>7058.046186804851</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>7168.759680275584</v>
+        <v>7168.759680317801</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>7281.425236520865</v>
+        <v>7281.425236561766</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>7396.074091120538</v>
+        <v>7396.074091160182</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>7512.737412751164</v>
+        <v>7512.737412789498</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>7631.44624759965</v>
+        <v>7631.446247636618</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>7752.231460870052</v>
+        <v>7752.23146090554</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>7875.123675316829</v>
+        <v>7875.123675350898</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>8000.15320676213</v>
+        <v>8000.15320679467</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>8127.349996584348</v>
+        <v>8127.34999661542</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>8256.743541170352</v>
+        <v>8256.743541199839</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8388.36281832026</v>
+        <v>8388.362818348111</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>8522.236210614026</v>
+        <v>8522.236210640362</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>8658.391425764601</v>
+        <v>8658.391425789192</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>8796.855413979203</v>
+        <v>8796.855414001941</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>8937.654282366602</v>
+        <v>8937.654282387601</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>9080.81320645949</v>
+        <v>9080.81320647899</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>9226.356338910489</v>
+        <v>9226.356338927912</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>9374.306715441484</v>
+        <v>9374.306715457067</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>9524.686158158893</v>
+        <v>9524.686158172522</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>9677.515176343217</v>
+        <v>9677.515176354784</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>9832.812864844178</v>
+        <v>9832.812864853917</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>9990.59680024682</v>
+        <v>9990.596800254387</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>10150.88293496362</v>
+        <v>10150.8829349689</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>10313.68548945391</v>
+        <v>10313.68548945714</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>10479.01684279016</v>
+        <v>10479.01684279123</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>10646.88742178387</v>
+        <v>10646.88742178255</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>10817.30558895073</v>
+        <v>10817.3055889469</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>10990.2775295678</v>
+        <v>10990.27752956182</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>11165.80713815162</v>
+        <v>11165.80713814313</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>11343.89590465095</v>
+        <v>11343.89590463973</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>11524.54280071898</v>
+        <v>11524.54280070537</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>11707.74416643054</v>
+        <v>11707.74416641421</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>11893.49359782856</v>
+        <v>11893.4935978095</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>12081.78183572032</v>
+        <v>12081.78183569818</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>12272.59665615789</v>
+        <v>12272.59665613303</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>12465.92276306031</v>
+        <v>12465.92276303283</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>12661.7416834485</v>
+        <v>12661.74168341771</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>12860.03166580137</v>
+        <v>12860.03166576738</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>13060.76758203759</v>
+        <v>13060.76758200063</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>13263.9208336606</v>
+        <v>13263.92083362033</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>13469.4592626165</v>
+        <v>13469.45926257291</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>13677.34706741992</v>
+        <v>13677.34706737289</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>13887.5447251192</v>
+        <v>13887.54472506861</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>14100.00891970136</v>
+        <v>14100.00891964757</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>14314.69247750139</v>
+        <v>14314.69247744345</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>14531.54431022467</v>
+        <v>14531.54431016341</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>14750.50936618235</v>
+        <v>14750.50936611681</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>14971.52859032339</v>
+        <v>14971.5285902544</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>15194.53889367239</v>
+        <v>15194.53889359914</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>15419.47313273171</v>
+        <v>15419.47313265453</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>15646.26009946297</v>
+        <v>15646.26009938162</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>15874.82452236144</v>
+        <v>15874.82452227617</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>16105.08707921655</v>
+        <v>16105.0870791264</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>16336.96442203306</v>
+        <v>16336.96442193863</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>16570.36921465733</v>
+        <v>16570.36921455885</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>16805.21018354102</v>
+        <v>16805.21018343767</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>17041.39218210633</v>
+        <v>17041.39218199832</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>17278.81626909429</v>
+        <v>17278.81626898175</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>17517.37980127463</v>
+        <v>17517.37980115722</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>17756.97654082164</v>
+        <v>17756.97654069957</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>17997.49677763231</v>
+        <v>17997.49677750501</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>18238.82746680724</v>
+        <v>18238.82746667505</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>18480.85238145192</v>
+        <v>18480.85238131485</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>18723.45228091124</v>
+        <v>18723.45228076928</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>18966.5050944802</v>
+        <v>18966.50509433334</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>19209.88612058014</v>
+        <v>19209.8861204277</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>19453.46824129462</v>
+        <v>19453.46824113704</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>19697.12215215403</v>
+        <v>19697.12215199156</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>19940.7166069048</v>
+        <v>19940.7166067365</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>20184.11867698972</v>
+        <v>20184.11867681653</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>20427.19402539229</v>
+        <v>20427.19402521421</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>20669.80719436347</v>
+        <v>20669.80719418002</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>20911.82190657526</v>
+        <v>20911.82190638691</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>21153.1013790687</v>
+        <v>21153.10137887451</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>21393.50864937593</v>
+        <v>21393.50864917685</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>21632.90691308899</v>
+        <v>21632.90691288548</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>21871.15987206621</v>
+        <v>21871.15987185687</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>22108.13209243981</v>
+        <v>22108.13209222627</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>22343.68937150382</v>
+        <v>22343.68937128561</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>22577.69911248713</v>
+        <v>22577.69911226356</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>22810.03070620034</v>
+        <v>22810.03070597281</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>23040.5559184611</v>
+        <v>23040.55591822843</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>23269.14928216788</v>
+        <v>23269.14928193195</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>23495.68849284899</v>
+        <v>23495.68849260909</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>23720.05480648207</v>
+        <v>23720.05480623774</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>23942.13343833598</v>
+        <v>23942.13343808862</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>24161.81396158805</v>
+        <v>24161.81396133719</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>24378.99070439685</v>
+        <v>24378.99070414342</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>24593.56314417563</v>
+        <v>24593.56314391893</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>24805.43629771914</v>
+        <v>24805.43629746057</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>25014.5211058991</v>
+        <v>25014.52110563867</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>25220.73481160871</v>
+        <v>25220.73481134617</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>25424.0013296594</v>
+        <v>25424.0013293964</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>25624.25160735013</v>
+        <v>25624.25160708619</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>25821.4239744272</v>
+        <v>25821.42397416395</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>26015.46448120529</v>
+        <v>26015.4644809418</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>26206.32722360166</v>
+        <v>26206.32722333979</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>26393.97465393553</v>
+        <v>26393.97465367483</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>26578.37787627574</v>
+        <v>26578.37787601736</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>26759.5169252601</v>
+        <v>26759.51692500498</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>26937.3810272613</v>
+        <v>26937.3810270099</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>27111.96884284726</v>
+        <v>27111.96884260074</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>27283.28868953871</v>
+        <v>27283.28868929755</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>27451.35874382676</v>
+        <v>27451.35874359188</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>27616.20722156596</v>
+        <v>27616.2072213383</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>27777.87253574166</v>
+        <v>27777.87253552261</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>27936.40343078201</v>
+        <v>27936.4034305718</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>28091.8590925284</v>
+        <v>28091.85909232913</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>28244.30923298606</v>
+        <v>28244.30923279773</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>28393.83414907586</v>
+        <v>28393.83414890034</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>28540.52475454921</v>
+        <v>28540.52475438835</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>28684.48258423155</v>
+        <v>28684.48258408513</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>28825.81976986838</v>
+        <v>28825.81976973849</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>28964.65898665533</v>
+        <v>28964.65898654336</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>29101.13336977011</v>
+        <v>29101.13336967699</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>29235.38639996089</v>
+        <v>29235.3863998892</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>29367.57175745731</v>
+        <v>29367.57175740843</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>29497.85314326865</v>
+        <v>29497.85314324306</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>29626.40406703705</v>
+        <v>29626.40406703612</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>29753.40760052804</v>
+        <v>29753.40760055413</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>29879.05609584104</v>
+        <v>29879.05609589693</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>30003.55086736516</v>
+        <v>30003.55086745085</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>30127.10183653349</v>
+        <v>30127.10183665131</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>30249.92713836573</v>
+        <v>30249.927138518</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>30372.25268881034</v>
+        <v>30372.25268899755</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>30494.31171183363</v>
+        <v>30494.31171205761</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>30616.34422531059</v>
+        <v>30616.34422557415</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>30738.59648463509</v>
+        <v>30738.59648493963</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>30861.32038318119</v>
+        <v>30861.32038352812</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>30984.77280858796</v>
+        <v>30984.77280897865</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>31109.21495408627</v>
+        <v>31109.21495452353</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>31234.91158407151</v>
+        <v>31234.91158455626</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>31362.13025322474</v>
+        <v>31362.13025375791</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>31491.14047870625</v>
+        <v>31491.14047929158</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>31622.21286502547</v>
+        <v>31622.21286566203</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>31755.61818141458</v>
+        <v>31755.61818210376</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>31891.62639181273</v>
+        <v>31891.62639255779</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>32030.50563773451</v>
+        <v>32030.50563853638</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>32172.52117473012</v>
+        <v>32172.52117558879</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>32317.93426332732</v>
+        <v>32317.93426424281</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>32467.00101591781</v>
+        <v>32467.00101689382</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>32619.97120126883</v>
+        <v>32619.97120230306</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>32777.08700900728</v>
+        <v>32777.08701010158</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>32938.58177672319</v>
+        <v>32938.58177787849</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>33104.67868306163</v>
+        <v>33104.67868427746</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>33275.58941062049</v>
+        <v>33275.58941189639</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>33451.51278310723</v>
+        <v>33451.51278444274</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>33632.6333818994</v>
+        <v>33632.63338329497</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>33819.12014773571</v>
+        <v>33819.12014918902</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>34011.12497398759</v>
+        <v>34011.12497549957</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>34208.78129863015</v>
+        <v>34208.78130019663</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>34412.20270273394</v>
+        <v>34412.20270435582</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>34621.48152404214</v>
+        <v>34621.48152571711</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>34836.68749469955</v>
+        <v>34836.68749642388</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>35057.86641312559</v>
+        <v>35057.86641489742</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>35285.0388604</v>
+        <v>35285.0388622184</v>
       </c>
     </row>
   </sheetData>
